--- a/BenchmarkResults.xlsx
+++ b/BenchmarkResults.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="0" windowWidth="14600" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Droid-Bench" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="191">
   <si>
     <t>Category name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>PublicAPIField1</t>
   </si>
   <si>
-    <t>handle tainted data leak via scala values</t>
-  </si>
-  <si>
     <t>PublicAPIField2</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Callbacks</t>
   </si>
   <si>
-    <t>AnnonymousClass1</t>
-  </si>
-  <si>
     <t>Button1</t>
   </si>
   <si>
@@ -550,9 +544,6 @@
     <t>Reflection4</t>
   </si>
   <si>
-    <t>handle dynamic loaded class methods</t>
-  </si>
-  <si>
     <t>Threading</t>
   </si>
   <si>
@@ -599,13 +590,16 @@
   </si>
   <si>
     <t>Non zero</t>
+  </si>
+  <si>
+    <t>AnonymousClass1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -631,6 +625,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -668,8 +674,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1015,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128:D128"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1054,19 +1062,19 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1196,24 +1204,24 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11">
@@ -1257,21 +1265,18 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1288,30 +1293,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1326,32 +1331,32 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1368,16 +1373,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1385,7 +1390,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1400,12 +1405,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1422,203 +1427,203 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>38</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>47</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1633,12 +1638,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1653,55 +1658,55 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>54</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1718,7 +1723,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1733,12 +1738,12 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1755,10 +1760,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1775,7 +1780,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1792,7 +1797,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1809,7 +1814,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1826,7 +1831,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1843,7 +1848,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1860,7 +1865,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1877,10 +1882,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1897,7 +1902,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1914,7 +1919,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1931,95 +1936,95 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2034,12 +2039,12 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2056,7 +2061,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2073,7 +2078,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2090,7 +2095,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2107,7 +2112,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2124,7 +2129,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2139,12 +2144,12 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2161,27 +2166,27 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2198,7 +2203,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2214,25 +2219,25 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2249,7 +2254,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2266,7 +2271,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2283,10 +2288,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2301,12 +2306,12 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2321,32 +2326,32 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
         <v>121</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2361,112 +2366,112 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>4</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
         <v>3</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2483,7 +2488,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -2500,7 +2505,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2517,7 +2522,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2534,7 +2539,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2551,7 +2556,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2566,12 +2571,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2588,7 +2593,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2605,7 +2610,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2620,12 +2625,12 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2640,12 +2645,12 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2657,89 +2662,86 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="B90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>146</v>
-      </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2756,44 +2758,44 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B95" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>156</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2810,7 +2812,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="B98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2827,7 +2829,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="B99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2844,7 +2846,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="B100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2859,12 +2861,12 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="B101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2879,12 +2881,12 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="B102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2899,12 +2901,12 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2921,7 +2923,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="B104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2938,7 +2940,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="B105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2953,12 +2955,12 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="B106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2974,45 +2976,45 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="B107" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="B107" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="B108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="B109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3029,7 +3031,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="B110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3045,102 +3047,99 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="B111" t="s">
-        <v>170</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="B111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>171</v>
-      </c>
-      <c r="B112" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+        <v>169</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="B113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3155,12 +3154,12 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="B117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3175,12 +3174,12 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="B118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3195,12 +3194,12 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="B119" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3215,12 +3214,12 @@
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="B120" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3235,12 +3234,12 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C122">
         <f>SUM(C2:C120)</f>
@@ -3248,51 +3247,51 @@
       </c>
       <c r="D122">
         <f>SUM(D2:D120)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E122">
         <f>SUM(E2:E120)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122">
         <f>SUM(F2:F120)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B123">
         <f>D122/(D122+E122)</f>
-        <v>0.90090090090090091</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B124">
         <f>D122/(D122+F122)</f>
-        <v>0.7407407407407407</v>
+        <v>0.75912408759124084</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B125">
         <f>(2*B123*B124)/(B123+B124)</f>
-        <v>0.81300813008130079</v>
+        <v>0.82213438735177857</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="C128" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D128">
         <f xml:space="preserve"> COUNTIF(D2:D120,"&gt;0")</f>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3311,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3349,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3366,10 +3365,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3386,10 +3385,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3406,7 +3405,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3423,7 +3422,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3440,7 +3439,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3457,7 +3456,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3474,7 +3473,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3491,7 +3490,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3508,7 +3507,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3525,10 +3524,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3545,7 +3544,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3560,12 +3559,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3582,7 +3581,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3599,7 +3598,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3616,7 +3615,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3633,7 +3632,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3650,7 +3649,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3667,7 +3666,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3684,7 +3683,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22">
         <f>SUM(C2:C20)</f>
@@ -3705,7 +3704,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23">
         <f xml:space="preserve"> D22/(D22+E22)</f>
@@ -3714,7 +3713,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <f xml:space="preserve"> D22/(D22+F22)</f>
@@ -3723,7 +3722,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25">
         <f xml:space="preserve"> 2*B23*B24/(B23+B24)</f>
@@ -3732,7 +3731,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="C28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <f xml:space="preserve"> COUNTIF(D2:D20,"&gt;0")</f>

--- a/BenchmarkResults.xlsx
+++ b/BenchmarkResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="0" windowWidth="14600" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="8920" yWindow="1580" windowWidth="14600" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Droid-Bench" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="191">
   <si>
     <t>Category name</t>
   </si>
@@ -599,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,13 +632,6 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,7 +670,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1023,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1211,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1315,7 +1308,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16">
@@ -1355,7 +1348,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18">
@@ -1409,7 +1402,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21">
@@ -1483,7 +1476,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="1">
@@ -1955,7 +1948,7 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="1">
@@ -2043,7 +2036,7 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C56">
@@ -2185,7 +2178,7 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C64">
@@ -2555,23 +2548,20 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2730,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3247,15 +3237,15 @@
       </c>
       <c r="D122">
         <f>SUM(D2:D120)</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E122">
         <f>SUM(E2:E120)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F122">
         <f>SUM(F2:F120)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3264,7 +3254,7 @@
       </c>
       <c r="B123">
         <f>D122/(D122+E122)</f>
-        <v>0.89655172413793105</v>
+        <v>0.9017857142857143</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3273,7 +3263,7 @@
       </c>
       <c r="B124">
         <f>D122/(D122+F122)</f>
-        <v>0.75912408759124084</v>
+        <v>0.74264705882352944</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3282,7 +3272,7 @@
       </c>
       <c r="B125">
         <f>(2*B123*B124)/(B123+B124)</f>
-        <v>0.82213438735177857</v>
+        <v>0.81451612903225801</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3291,7 +3281,7 @@
       </c>
       <c r="D128">
         <f xml:space="preserve"> COUNTIF(D2:D120,"&gt;0")</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
